--- a/nutrients 13CO2 recovery and fox.xlsx
+++ b/nutrients 13CO2 recovery and fox.xlsx
@@ -487,16 +487,16 @@
         <v>96</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9250650845826089</v>
+        <v>0.8727029099835935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05905601258666325</v>
+        <v>0.05571321942138048</v>
       </c>
       <c r="G5" t="n">
         <v>8.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.020879453484933842</v>
+        <v>0.019697597627296098</v>
       </c>
     </row>
     <row r="6">
@@ -513,16 +513,16 @@
         <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9661556223928736</v>
+        <v>0.9114675682951636</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03647119542806099</v>
+        <v>0.03440678813968012</v>
       </c>
       <c r="G6" t="n">
         <v>3.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02105665449805846</v>
+        <v>0.019864768394394744</v>
       </c>
     </row>
     <row r="7">
@@ -1137,16 +1137,16 @@
         <v>96</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9738741842976388</v>
+        <v>0.9187492304694704</v>
       </c>
       <c r="F30" t="n">
-        <v>0.036990986937111975</v>
+        <v>0.034897157487841494</v>
       </c>
       <c r="G30" t="n">
         <v>4.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.018495493468555987</v>
+        <v>0.017448578743920747</v>
       </c>
     </row>
     <row r="31">
@@ -1163,16 +1163,16 @@
         <v>95</v>
       </c>
       <c r="E31" t="n">
-        <v>0.86375263046958</v>
+        <v>0.8148609721411132</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06072379092082796</v>
+        <v>0.05728659520832827</v>
       </c>
       <c r="G31" t="n">
         <v>5.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.027156504870091174</v>
+        <v>0.025619344217067144</v>
       </c>
     </row>
     <row r="32">
@@ -1735,16 +1735,16 @@
         <v>96</v>
       </c>
       <c r="E53" t="n">
-        <v>0.831482027217896</v>
+        <v>0.7844170068093358</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09473866737863317</v>
+        <v>0.0893761013005973</v>
       </c>
       <c r="G53" t="n">
         <v>13.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.026275778692522265</v>
+        <v>0.02478847046464364</v>
       </c>
     </row>
     <row r="54">
@@ -1761,16 +1761,16 @@
         <v>95</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8664704258811999</v>
+        <v>0.8174249300766036</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08910764053083596</v>
+        <v>0.08406381182154336</v>
       </c>
       <c r="G54" t="n">
         <v>6.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.036378041913982216</v>
+        <v>0.03431890746602096</v>
       </c>
     </row>
     <row r="55">
@@ -2344,16 +2344,16 @@
         <v>98</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9362715948944993</v>
+        <v>0.8832750895231125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055459387695764674</v>
+        <v>0.0523201770714761</v>
       </c>
       <c r="G4" t="n">
         <v>11.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.016721634553609487</v>
+        <v>0.015775126937367438</v>
       </c>
     </row>
     <row r="5">
@@ -2682,16 +2682,16 @@
         <v>98</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9126955432820506</v>
+        <v>0.8610335313981609</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07566609422144838</v>
+        <v>0.07138310775608332</v>
       </c>
       <c r="G17" t="n">
         <v>9.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02522203140714946</v>
+        <v>0.023794369252027773</v>
       </c>
     </row>
     <row r="18">
@@ -2968,16 +2968,16 @@
         <v>98</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8431448267723306</v>
+        <v>0.7954196478984251</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09182053346944366</v>
+        <v>0.08662314478249397</v>
       </c>
       <c r="G28" t="n">
         <v>19.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.021065075070278893</v>
+        <v>0.019872712330451774</v>
       </c>
     </row>
     <row r="29">
@@ -3395,16 +3395,16 @@
         <v>96</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0053225292558121</v>
+        <v>0.9484174804300116</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06417963549902587</v>
+        <v>0.060546825942477296</v>
       </c>
       <c r="G5" t="n">
         <v>8.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02269092773772103</v>
+        <v>0.021406535601623634</v>
       </c>
     </row>
     <row r="6">
@@ -3421,16 +3421,16 @@
         <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0499780287318687</v>
+        <v>0.9905453101244043</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03963538895132416</v>
+        <v>0.037391876369173675</v>
       </c>
       <c r="G6" t="n">
         <v>3.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.022883502480482522</v>
+        <v>0.02158820988724763</v>
       </c>
     </row>
     <row r="7">
@@ -4045,16 +4045,16 @@
         <v>96</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0583662430376948</v>
+        <v>0.9984587198468817</v>
       </c>
       <c r="F30" t="n">
-        <v>0.040200276896263314</v>
+        <v>0.037924789524776716</v>
       </c>
       <c r="G30" t="n">
         <v>4.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.020100138448131657</v>
+        <v>0.018962394762388358</v>
       </c>
     </row>
     <row r="31">
@@ -4071,16 +4071,16 @@
         <v>95</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9386906862957001</v>
+        <v>0.8855572512223586</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06599210811428734</v>
+        <v>0.06225670576819561</v>
       </c>
       <c r="G31" t="n">
         <v>5.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02951256794441239</v>
+        <v>0.027842045230577726</v>
       </c>
     </row>
     <row r="32">
@@ -4643,16 +4643,16 @@
         <v>96</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9036203274395642</v>
+        <v>0.8524720070184567</v>
       </c>
       <c r="F53" t="n">
-        <v>0.10295807105333175</v>
+        <v>0.0971302557106903</v>
       </c>
       <c r="G53" t="n">
         <v>13.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.028555431108127104</v>
+        <v>0.0269390859510633</v>
       </c>
     </row>
     <row r="54">
@@ -4669,16 +4669,16 @@
         <v>95</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9416442741056242</v>
+        <v>0.8883436548166265</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09683850363339273</v>
+        <v>0.09135707889942711</v>
       </c>
       <c r="G54" t="n">
         <v>6.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03953415355941117</v>
+        <v>0.037296371282463374</v>
       </c>
     </row>
     <row r="55">
@@ -5252,16 +5252,16 @@
         <v>98</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0175013018401913</v>
+        <v>0.9599068885284823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06027097210618578</v>
+        <v>0.05685940764734507</v>
       </c>
       <c r="G4" t="n">
         <v>11.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01817238183874496</v>
+        <v>0.017143756451646185</v>
       </c>
     </row>
     <row r="5">
@@ -5590,16 +5590,16 @@
         <v>98</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9918798226254756</v>
+        <v>0.9357356817221467</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08223078623266543</v>
+        <v>0.0775762134270428</v>
       </c>
       <c r="G17" t="n">
         <v>9.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02741026207755514</v>
+        <v>0.025858737809014265</v>
       </c>
     </row>
     <row r="18">
@@ -5876,16 +5876,16 @@
         <v>98</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9162949763282509</v>
+        <v>0.8644292229511801</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0997867636381165</v>
+        <v>0.09413845626237402</v>
       </c>
       <c r="G28" t="n">
         <v>19.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.022892653610606783</v>
+        <v>0.02159684302887431</v>
       </c>
     </row>
     <row r="29">
